--- a/result/ingredient.xlsx
+++ b/result/ingredient.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>gpt</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>平均分數</t>
+  </si>
+  <si>
+    <t>ROUGE-L</t>
   </si>
 </sst>
 </file>
@@ -101,7 +104,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -115,14 +118,20 @@
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
@@ -169,7 +178,7 @@
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>最符合表單分數次數</a:t>
+              <a:t>ingrendients 最符合表單分數次數</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -210,11 +219,236 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1151223576"/>
-        <c:axId val="500512180"/>
+        <c:axId val="1213115497"/>
+        <c:axId val="326577325"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1151223576"/>
+        <c:axId val="1213115497"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="326577325"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="326577325"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1213115497"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>ingrdients 各評估方式所得分數平均</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'工作表1'!$C$29</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'工作表1'!$A$30:$A$34</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'工作表1'!$C$30:$C$34</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="1492000622"/>
+        <c:axId val="1233352455"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1492000622"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -266,10 +500,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500512180"/>
+        <c:crossAx val="1233352455"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="500512180"/>
+        <c:axId val="1233352455"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -316,7 +550,7 @@
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                   </a:rPr>
-                  <a:t>次數</a:t>
+                  <a:t/>
                 </a:r>
               </a:p>
             </c:rich>
@@ -344,232 +578,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1151223576"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:defRPr b="0">
-              <a:solidFill>
-                <a:srgbClr val="1A1A1A"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="757575"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="757575"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:rPr>
-              <a:t>各評估方式所得分數平均</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'工作表1'!$C$29</c:f>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>'工作表1'!$A$30:$A$34</c:f>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'工作表1'!$C$30:$C$34</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="515418816"/>
-        <c:axId val="479115296"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="515418816"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t>評估方式</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:spPr/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="479115296"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="479115296"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="CCCCCC">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t>平均分數</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="515418816"/>
+        <c:crossAx val="1492000622"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1029,13 +1038,13 @@
       <c r="G4" s="5">
         <v>0.709139</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="6">
         <v>0.779071</v>
       </c>
       <c r="I4" s="5">
         <v>0.831572</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="6">
         <v>0.728307</v>
       </c>
       <c r="K4" s="3">
@@ -1044,16 +1053,16 @@
       <c r="L4" s="3">
         <v>0.768091</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="6">
         <v>0.735281</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="6">
         <v>0.747277</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="6">
         <v>0.740485</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="6">
         <v>0.81439</v>
       </c>
       <c r="Q4" s="2">
@@ -1101,7 +1110,7 @@
       <c r="J5" s="3">
         <v>0.157894731842105</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="6">
         <v>0.357142852244898</v>
       </c>
       <c r="L5" s="3">
@@ -1152,20 +1161,20 @@
       <c r="F6" s="1">
         <v>1.0</v>
       </c>
-      <c r="G6" s="1">
-        <v>0.7894736842</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0.84</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0.8095238095</v>
+      <c r="G6" s="7">
+        <v>0.5294117647</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.258064513007284</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.7083333333</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0.8181818182</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0.8</v>
       </c>
       <c r="L6" s="4">
         <v>0.6470588235</v>
@@ -1184,7 +1193,7 @@
       </c>
       <c r="Q6" s="2">
         <f t="shared" si="1"/>
-        <v>0.8536830311</v>
+        <v>0.7853492935</v>
       </c>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
@@ -1200,34 +1209,34 @@
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="9">
         <v>0.7736842105</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="8">
         <v>0.7315789474</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="8">
         <v>0.7263157895</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="8">
         <v>0.6473684211</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="8">
         <v>0.7105263158</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="8">
         <v>0.5571428571</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="8">
         <v>0.7142857143</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="8">
         <v>0.7142857143</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="8">
         <v>0.5428571429</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="8">
         <v>0.3428571429</v>
       </c>
       <c r="L7" s="1">
@@ -1261,8 +1270,8 @@
     </row>
     <row r="8">
       <c r="A8" s="1"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -1515,34 +1524,34 @@
       <c r="F14" s="4">
         <v>0.807034</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="6">
         <v>0.711907</v>
       </c>
       <c r="H14" s="3">
         <v>0.758476</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="6">
         <v>0.817624</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="6">
         <v>0.733518</v>
       </c>
       <c r="K14" s="3">
         <v>0.796332</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="6">
         <v>0.695886</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="6">
         <v>0.723614</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14" s="6">
         <v>0.765327</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" s="6">
         <v>0.671434</v>
       </c>
-      <c r="P14" s="5">
+      <c r="P14" s="6">
         <v>0.722752</v>
       </c>
       <c r="Q14" s="2">
@@ -1590,7 +1599,7 @@
       <c r="J15" s="3">
         <v>0.217391299499054</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="6">
         <v>0.324324319941563</v>
       </c>
       <c r="L15" s="3">
@@ -1626,7 +1635,7 @@
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="8">
         <v>0.8947368421</v>
       </c>
       <c r="C16" s="1">
@@ -1641,20 +1650,20 @@
       <c r="F16" s="1">
         <v>1.0</v>
       </c>
-      <c r="G16" s="4">
-        <v>0.6</v>
+      <c r="G16" s="1">
+        <v>0.75</v>
       </c>
       <c r="H16" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="I16" s="4">
-        <v>0.8095238095</v>
+        <v>0.7</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.84</v>
       </c>
       <c r="J16" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0.8888888889</v>
+        <v>0.92</v>
+      </c>
+      <c r="K16" s="8">
+        <v>0.7391304348</v>
       </c>
       <c r="L16" s="1">
         <v>0.3923043478</v>
@@ -1673,7 +1682,7 @@
       </c>
       <c r="Q16" s="2">
         <f t="shared" si="2"/>
-        <v>0.7883326857</v>
+        <v>0.7817138682</v>
       </c>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
@@ -1689,34 +1698,34 @@
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="8">
         <v>0.7526315789</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="8">
         <v>0.7421052632</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="8">
         <v>0.7052631579</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="8">
         <v>0.7421052632</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="8">
         <v>0.7263157895</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="8">
         <v>0.6428571429</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="8">
         <v>0.6142857143</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="8">
         <v>0.7428571429</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="8">
         <v>0.5571428571</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="8">
         <v>0.5285714286</v>
       </c>
       <c r="L17" s="1">
@@ -1755,11 +1764,11 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
@@ -2019,19 +2028,19 @@
       <c r="K24" s="3">
         <v>0.692791</v>
       </c>
-      <c r="L24" s="5">
+      <c r="L24" s="6">
         <v>0.758035</v>
       </c>
-      <c r="M24" s="5">
+      <c r="M24" s="6">
         <v>0.728621</v>
       </c>
-      <c r="N24" s="5">
+      <c r="N24" s="6">
         <v>0.697094</v>
       </c>
-      <c r="O24" s="5">
+      <c r="O24" s="6">
         <v>0.664232</v>
       </c>
-      <c r="P24" s="5">
+      <c r="P24" s="6">
         <v>0.727689</v>
       </c>
       <c r="Q24" s="2">
@@ -2076,7 +2085,7 @@
       <c r="I25" s="3">
         <v>0.199999995022222</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25" s="6">
         <v>0.181818176932966</v>
       </c>
       <c r="K25" s="5">
@@ -2131,19 +2140,19 @@
         <v>1.0</v>
       </c>
       <c r="G26" s="4">
-        <v>0.5714285714</v>
+        <v>0.444444444</v>
       </c>
       <c r="H26" s="4">
         <v>0.5238095238</v>
       </c>
-      <c r="I26" s="4">
-        <v>0.652173913</v>
+      <c r="I26" s="7">
+        <v>0.5357142857</v>
       </c>
       <c r="J26" s="1">
-        <v>0.652173913</v>
-      </c>
-      <c r="K26" s="1">
-        <v>0.5625</v>
+        <v>0.5172413793</v>
+      </c>
+      <c r="K26" s="7">
+        <v>0.380952381</v>
       </c>
       <c r="L26" s="1">
         <v>0.5</v>
@@ -2162,7 +2171,7 @@
       </c>
       <c r="Q26" s="2">
         <f t="shared" si="3"/>
-        <v>0.658047504</v>
+        <v>0.6207192435</v>
       </c>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
@@ -2178,34 +2187,34 @@
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="8">
         <v>0.7315789474</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="8">
         <v>0.7210526316</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="8">
         <v>0.7052631579</v>
       </c>
       <c r="E27" s="1">
         <v>0.7</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="8">
         <v>0.7210526316</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="8">
         <v>0.5285714286</v>
       </c>
       <c r="H27" s="1">
         <v>0.5</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="8">
         <v>0.5428571429</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="8">
         <v>0.2857142857</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K27" s="8">
         <v>0.3142857143</v>
       </c>
       <c r="L27" s="1">
@@ -2238,117 +2247,117 @@
       <c r="Z27" s="2"/>
     </row>
     <row r="28">
-      <c r="A28" s="9"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
-      <c r="X28" s="11"/>
-      <c r="Y28" s="11"/>
-      <c r="Z28" s="11"/>
+      <c r="A28" s="11"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="13"/>
+      <c r="Y28" s="13"/>
+      <c r="Z28" s="13"/>
     </row>
     <row r="29">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9" t="s">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="11"/>
-      <c r="X29" s="11"/>
-      <c r="Y29" s="11"/>
-      <c r="Z29" s="11"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="13"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="11">
         <v>0.0</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="13">
         <f t="shared" ref="C30:C34" si="4">AVERAGE(Q3,Q13,Q23)</f>
         <v>0.921433421</v>
       </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="11"/>
-      <c r="V30" s="11"/>
-      <c r="W30" s="11"/>
-      <c r="X30" s="11"/>
-      <c r="Y30" s="11"/>
-      <c r="Z30" s="11"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="13"/>
+      <c r="Z30" s="13"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="12">
-        <v>32.0</v>
-      </c>
-      <c r="C31" s="11">
+      <c r="B31" s="14">
+        <v>33.0</v>
+      </c>
+      <c r="C31" s="13">
         <f t="shared" si="4"/>
         <v>0.7640236444</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="12">
-        <v>4.0</v>
-      </c>
-      <c r="C32" s="11">
+        <v>11</v>
+      </c>
+      <c r="B32" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="C32" s="13">
         <f t="shared" si="4"/>
         <v>0.2511730011</v>
       </c>
@@ -2357,19 +2366,19 @@
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="14">
         <v>9.0</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="13">
         <f t="shared" si="4"/>
-        <v>0.7666877403</v>
+        <v>0.7292608017</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="13">
         <f t="shared" si="4"/>
         <v>0.6552314119</v>
       </c>
